--- a/adopt_net0/database/templates/technology_data/Industrial/CementHybridCCS_data/performance_cost_cementHybridCCS.xlsx
+++ b/adopt_net0/database/templates/technology_data/Industrial/CementHybridCCS_data/performance_cost_cementHybridCCS.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AdOpT-NET0\adopt_net0\data\technology_data\Industrial\CementHybridCCS_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AdOpT-NET0\adopt_net0\database\templates\technology_data\Industrial\CementHybridCCS_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B793B5F-937B-473D-B888-8D4CBA8B4AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D5D947-7565-44C6-965C-6F2F51E2A688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-8232" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{E2BFC7E1-4DB0-481D-84E5-7A55811547F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E2BFC7E1-4DB0-481D-84E5-7A55811547F9}"/>
   </bookViews>
   <sheets>
     <sheet name="performance" sheetId="1" r:id="rId1"/>
-    <sheet name="cost_oxy" sheetId="2" r:id="rId2"/>
-    <sheet name="cost_mea" sheetId="3" r:id="rId3"/>
+    <sheet name="unit_cost_oxy" sheetId="2" r:id="rId2"/>
+    <sheet name="unit_cost_mea" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -226,10 +226,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -555,14 +551,14 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -570,7 +566,7 @@
         <v>8.14E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -578,7 +574,7 @@
         <v>9.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -596,18 +592,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F59178C7-693C-49F7-9D41-743BA8860120}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -615,7 +611,7 @@
         <v>1853640</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -633,13 +629,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB51D6E-8B2F-49D9-84B5-99B2BBAFECB0}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>0.6</v>
       </c>
@@ -653,7 +649,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -670,7 +666,7 @@
         <v>53454.994623641898</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
